--- a/taxonomic-classification/analysis/SampleOverview/data/RelativeClassificationSummary.xlsx
+++ b/taxonomic-classification/analysis/SampleOverview/data/RelativeClassificationSummary.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC A</t>
+          <t>MED4-Alteromonas_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -498,12 +498,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC B</t>
+          <t>MED4-Alteromonas_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -523,12 +523,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 NPC C</t>
+          <t>MED4-Alteromonas_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -548,12 +548,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 A</t>
+          <t>MED4-Alteromonas_1stinfection_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -573,12 +573,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 B</t>
+          <t>MED4-Alteromonas_1stinfection_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -598,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-1 C</t>
+          <t>MED4-Alteromonas_1stinfection_C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -623,12 +623,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 A</t>
+          <t>MED4-Alteromonas_2ndinfection_A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -648,12 +648,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 B</t>
+          <t>MED4-Alteromonas_2ndinfection_B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -673,12 +673,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MED4-MIT1002 PSSP7-2 C</t>
+          <t>MED4-Alteromonas_2ndinfection_C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MED4-MIT1002</t>
+          <t>MED4-Alteromonas</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -698,7 +698,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MED4Xe NPC A</t>
+          <t>MED4Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -723,7 +723,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MED4Xe NPC B</t>
+          <t>MED4Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MED4Xe NPC C</t>
+          <t>MED4Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 A</t>
+          <t>MED4Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 B</t>
+          <t>MED4Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -823,7 +823,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-1 C</t>
+          <t>MED4Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -848,7 +848,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 A</t>
+          <t>MED4Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 B</t>
+          <t>MED4Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MED4Xe PSSP7-2 C</t>
+          <t>MED4Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -923,7 +923,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC A</t>
+          <t>MITS9451Xe_nophagecontrol_A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC B</t>
+          <t>MITS9451Xe_nophagecontrol_B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MITS9451Xe NPC C</t>
+          <t>MITS9451Xe_nophagecontrol_C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -998,7 +998,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 A</t>
+          <t>MITS9451Xe_1stinfection_A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1023,7 +1023,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 B</t>
+          <t>MITS9451Xe_1stinfection_B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-1 C</t>
+          <t>MITS9451Xe_1stinfection_C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1073,7 +1073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 A</t>
+          <t>MITS9451Xe_2ndinfection_A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 B</t>
+          <t>MITS9451Xe_2ndinfection_B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1123,7 +1123,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MITS9451Xe Syn9-2 C</t>
+          <t>MITS9451Xe_2ndinfection_C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
